--- a/WIP/Users/HieuTM/20150803_SysTestcase_HieuTM.xlsx
+++ b/WIP/Users/HieuTM/20150803_SysTestcase_HieuTM.xlsx
@@ -163,26 +163,6 @@
     <t xml:space="preserve">When user search </t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Input "" into search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Input [maxlength] characters into search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Input [maxlength+1] characters into search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Input "Hanoi" into search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
     <t>Search by name</t>
   </si>
   <si>
@@ -222,15 +202,6 @@
   </si>
   <si>
     <t>Suggest</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Place Suggestion in Suggestion Bar</t>
   </si>
   <si>
     <t>1. Homepage is displayed
@@ -241,15 +212,6 @@
 5. 5 places is displayed in Suggestion Bar</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Friend Suggestion in Suggestion Bar</t>
-  </si>
-  <si>
     <t>1. Homepage is displayed
 2. Login form is displayed
 3. [username] is displayed in user name text box
@@ -258,15 +220,6 @@
 5. 5 users is displayed in Suggestion Bar</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Activity Suggestion in Suggestion Bar</t>
-  </si>
-  <si>
     <t>1. Homepage is displayed
 2. Login form is displayed
 3. [username] is displayed in user name text box
@@ -295,15 +248,6 @@
     <t>When user see New Feed</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click New Feed in header</t>
-  </si>
-  <si>
     <t>1. Homepage is displayed
 2. Login form is displayed
 3. [username] is displayed in user name text box
@@ -340,34 +284,6 @@
   </si>
   <si>
     <t>Social - Video - Add Video</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Create Post
-6. Input "Create a post" into text box
-7. Click Add Video
-8. Input ""
-9. Click OK
-10. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Create Post
-6. Input "Create a post" into text box
-7. Click Add Video
-8. Input [youtube link]
-9. Click OK
-10. Click Create Post</t>
   </si>
   <si>
     <t>1. Homepage is displayed
@@ -394,20 +310,6 @@
 8. "" is displayed
 9. Popup is closed.
 10. New post is displayed.</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Create Post
-6. Input "Create a post" into text box
-7. Click Add Video
-8. Input [non-youtube link]
-9. Click OK
-10. Click Create Post</t>
   </si>
   <si>
     <t>1. Homepage is displayed
@@ -437,7 +339,1145 @@
 11. New post is displayed</t>
   </si>
   <si>
-    <t>1. Enter the website
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. [username] is displayed in user name text box
+•••••••••••• is displayed in password text box
+4. Homepage is displayed as Member
+5. Add Post page is displayed
+6. "" is displayed in text box
+7. Text box popup is displayed
+8. [youtube link] is displayed
+9. Popup is closed. Video thumbnail is displayed
+10. New post is displayed. Embedded video is playable</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. [username] is displayed in user name text box
+•••••••••••• is displayed in password text box
+4. Homepage is displayed as Member
+5. Add Post page is displayed
+6. "" is displayed in text box
+7. Text box popup is displayed
+8. [non-youtube link] is displayed
+9. Popup is closed. Input link is displayed as hyperlink
+10. New post is displayed</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. [username] is displayed in user name text box
+•••••••••••• is displayed in password text box
+4. Homepage is displayed as Member
+5. Add Post page is displayed
+6. "" is displayed in text box
+7. Text box popup is displayed
+8. "" is displayed
+9. Popup is closed
+10. Message "Write something" is displayed</t>
+  </si>
+  <si>
+    <t>Social - Share - Share Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with video
+</t>
+  </si>
+  <si>
+    <t>When user share a post</t>
+  </si>
+  <si>
+    <t>When user enter website</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed includes:
+- Header
+- Slider
+- Suggest bar
+- Post thumbnails
+- Footer</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Wishlist page is displayed include:
+- Header
+- Suggest bar
+- Place thumbnails
+- Footer</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login panel is displayed include:
+- Login button
+- Register button
+- Login with Facebook button
+- Login with Google button
+- User Name text box
+- Password text box
+- Remember check box
+- Login button
+- Forgot Password hyperlink</t>
+  </si>
+  <si>
+    <t>1. Hompage is displayed
+2. Look Around page is displayed include:
+- Header
+- Map
+- Result thumbnails
+- Footer</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. "" is displayed in user name text box
+"" is displayed in password text box
+4. Message "Please enter user name" is displayed below user name text box
+Message "Please enter password is displayed below password text box
+Login button is disabled</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. "user1" is displayed in user name text box
+•••••••••••• is displayed in password text box
+4. Message "Please enter a valid email address" is displayed below User Name text box
+Message "Must be between 5 and 50 characters" is displayed below Password text box
+Login button is disabled</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. "user1@gmail.com" is displayed in user name text box
+•••••••••••• is displayed in password text box
+4. User is logged in</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. [username] is displayed in user name text box
+•••••••••••• is displayed in password text box
+4. User is not logged in</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>1. Click Website logo</t>
+  </si>
+  <si>
+    <t>1. Reload Homepage</t>
+  </si>
+  <si>
+    <t>1. Click Search bar</t>
+  </si>
+  <si>
+    <t>1. Search page is displayed include:
+- Search text box
+- Search button
+- People
+- Popular
+- Recent</t>
+  </si>
+  <si>
+    <t>1. Click Friend button in Header</t>
+  </si>
+  <si>
+    <t>1. Friend menu is displayed include:
+- Friend menu items
+- See All button</t>
+  </si>
+  <si>
+    <t>1. Click Notification button in Header</t>
+  </si>
+  <si>
+    <t>1. Notification menu is displayed include:
+- Notification menu items
+- See All button</t>
+  </si>
+  <si>
+    <t>1. Click Message button in Header</t>
+  </si>
+  <si>
+    <t>1. Message menu is displayed include:
+- Message menu items
+- See All button</t>
+  </si>
+  <si>
+    <t>1. Click Wishlist</t>
+  </si>
+  <si>
+    <t>1. Click Look Around</t>
+  </si>
+  <si>
+    <t>1. Mouse over a post thumbnail</t>
+  </si>
+  <si>
+    <t>1. Buttons are displayed:
+- Add to Wishlist button
+- Like button
+- Dislike button</t>
+  </si>
+  <si>
+    <t>1. Click a post thumbnail</t>
+  </si>
+  <si>
+    <t>1. Click Avatar button in Header</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed include:
+- Header
+- User Avatar image
+- User Name hyperlink
+- Post Information label
+- Post content label
+- Like button
+- Dislike button
+- Share button
+- Comment hyperlink
+- Comments
+- Comment text box</t>
+  </si>
+  <si>
+    <t>1. Click View Profile in header</t>
+  </si>
+  <si>
+    <t>1. User menu is displayed include:
+- View Profile menu item
+- Logout menu item</t>
+  </si>
+  <si>
+    <t>Login 1</t>
+  </si>
+  <si>
+    <t>Login 2</t>
+  </si>
+  <si>
+    <t>Login 3</t>
+  </si>
+  <si>
+    <t>Login 4</t>
+  </si>
+  <si>
+    <t>Login 5</t>
+  </si>
+  <si>
+    <t>Login 6</t>
+  </si>
+  <si>
+    <t>Homepage 1</t>
+  </si>
+  <si>
+    <t>Homepage 2</t>
+  </si>
+  <si>
+    <t>Homepage 3</t>
+  </si>
+  <si>
+    <t>Homepage 4</t>
+  </si>
+  <si>
+    <t>Homepage 5</t>
+  </si>
+  <si>
+    <t>Homepage 6</t>
+  </si>
+  <si>
+    <t>Homepage 7</t>
+  </si>
+  <si>
+    <t>Homepage 8</t>
+  </si>
+  <si>
+    <t>Homepage 9</t>
+  </si>
+  <si>
+    <t>Homepage 10</t>
+  </si>
+  <si>
+    <t>1. Click Create Post</t>
+  </si>
+  <si>
+    <t>Homepage 11</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. New post is displayed</t>
+  </si>
+  <si>
+    <t>1. "" is displayed in text box
+2. Popup "Write something" is displayed</t>
+  </si>
+  <si>
+    <t>1. "" is displayed in text box
+2. Place text box is displayed
+3. "A" is displayed in place text box
+Suggestion is displayed below place text box
+4. Popup "Write something" is displayed</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Post</t>
+  </si>
+  <si>
+    <t>1. Input "" into text box
+2. Click Post</t>
+  </si>
+  <si>
+    <t>1. Input "" into text box
+2. Click Place
+3. Input "A" into place text box
+4. Click Post</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Place
+3. Input "" into place text box
+4. Click Post</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. New post is displayed
+3. "" is displayed in place text box
+4. New post is created</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Place
+3. Input "A" into place text box
+4. Click a suggestion
+5. Click Post</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. New post is displayed
+3. "A" is displayed in place text box
+Suggestion is displayed
+4. Choose place is displayed in place text box. Place text box is disabled
+5. New post is displayed with place mention</t>
+  </si>
+  <si>
+    <t>1. Input "+A" into text box
+2. Click Post</t>
+  </si>
+  <si>
+    <t>1. "+A" is displayed in text box
+2. New post is displayed</t>
+  </si>
+  <si>
+    <t>1. Input "Tag a friend +A" into text box
+2. Click a friend's name
+3. Click Post</t>
+  </si>
+  <si>
+    <t>1. "Tag a friend +A" is displayed in text box
+Suggestion is displayed
+2. "+A" is replaced with friend's name hyperlink
+3. New post is created with friend mention</t>
+  </si>
+  <si>
+    <t>1. Input "Tag friends" into text box
+2. Input "+A" into  text box
+3. Click a suggestion
+4. Input "+B" friend text box
+5. Click a suggestion
+6. Click Post</t>
+  </si>
+  <si>
+    <t>1. "Tag a friend" is displayed in text box
+2. "Tag a friend +A" is displayed in friend text box
+Suggestion is displayed
+3. "+A" is replaced with chosen friend's name
+4. "[tagged friend name]+B" is displayed in friend text box
+Suggest is displayed
+5. "+B" is replaced with chosen friend's name
+6. New post is displayed with friends mention</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. New post is displayed
+3. Suggest 10 place which contains "A" is displayed
+4. Choose place is displayed in place text box. Place text box is disabled
+5. "" is displayed in place text box. Place text box is enabled
+11. New post is displayed</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Add Place
+3. Input "A" into place text box
+4. Click a suggestion
+5. Delete choose place
+11. Click Post</t>
+  </si>
+  <si>
+    <t>1. Input "Tag a friend +A" into text box
+2. Click a friend's name
+3. Delete friend's name
+4. Click Post</t>
+  </si>
+  <si>
+    <t>1. "Tag a friend +A" is displayed in text box
+Suggestion is displayed
+2. "+A" is replaced with friend's name hyperlink
+3. Friend's name hyperlink is deleted. "Tag a friend" is displayed
+3. New post is created without friend mention</t>
+  </si>
+  <si>
+    <t>1. Input [maxlength] characters into text box
+7. Click Post</t>
+  </si>
+  <si>
+    <t>1. [maxlength] characters is displayed in text box
+2. New post is displayed</t>
+  </si>
+  <si>
+    <t>1. Input [maxlength+1] characters into text box
+2. Click Post</t>
+  </si>
+  <si>
+    <t>1. First [maxlength] characters is input in text box
+2. New post is displayed</t>
+  </si>
+  <si>
+    <t>Personal Page 1</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2. Click downarrow in high-right corner of a post
+3. Click Edit post
+4. Delete old data and input "Edit this post" into post text box
+5. Click Edit</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2 . Click downarrow in high-right corner of a post
+3. Click Edit in menu
+4. Delete old data and input [maxlength] characters into post text box
+5. Click Edit</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2. Click downarrow in high-right corner of a post
+3. Click Edit in menu
+4. Delete old data and input "" into post text box</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Post text box is shown and filled
+4. "" is displayed in post text box. Edit button is disabled</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2. Click downarrow in high-right corner of a post
+3. Click Edit in menu
+4. Click Cancel</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Post text box is shown and filled instead of Post content label
+4. Post content label is displayed instead of Post text box.
+Post is not edited</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2 . Click downarrow in high-right corner of a post
+3. Click Edit in menu
+4. Delete old data and input [maxlength+1] characters into post text box
+5. Click Edit</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Post text box is shown and filled instead of Post content label
+4. "Edit this post" is displayed
+5. Post content label is displayed instead of Post text box. Post content is edited</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Post text box is shown and filled instead of Post content label
+4. [maxlength] characters is displayed
+5. Post content label is displayed instead of Post text box. Post content is edited</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Post text box is shown and filled instead of Post content label
+4. First [maxlength] characters is input
+5. Post content label is displayed instead of Post text box. Post content is edited</t>
+  </si>
+  <si>
+    <t>1. Click Cancel</t>
+  </si>
+  <si>
+    <t>1. Create Post panel is displayed include:
+- Update Status label
+- Post Content text area
+- Location button
+- Photo button
+- Video button
+- Privacy dropdown button</t>
+  </si>
+  <si>
+    <t>1. Create Post panel is closed</t>
+  </si>
+  <si>
+    <t>Chưa code. Sẽ bổ sung</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Photo
+3. Choose a [size range] MB jpg file
+4. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. File chooser is displayed
+3. Image thumbnail is displayed
+4. New post with photo is displayed</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Add Photo
+3. Choose a [size range] MB jpg file
+4. Click X in high right corner of thumbnail
+5. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. File chooser is displayed
+3. Image thumbnail is displayed
+4. Image thumbnail is deleted
+5. Post is created</t>
+  </si>
+  <si>
+    <t>1. Input "" into text box
+2. Click Add Photo
+3. Choose a [size range] MB jpeg file
+4. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. "" is displayed in text box
+2. File chooser is displayed
+3. Image thumbnail is displayed
+4. Post is created</t>
+  </si>
+  <si>
+    <t>1. Input "" into text box
+2. Click Add Photo
+3. Choose a [size range] MB png file
+4. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Input "" into text box
+2. Click Add Photo
+3. Choose a [size range] MB bmp file
+4. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Input "" into text box
+2. Click Add Photo
+3. Choose a [size range] MB jpg file
+4. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Add Photo
+3. Choose a [maxsize] MB jpg file
+4. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. File chooser is displayed
+3. Image thumbnail is displayed
+4. Post is created</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Add Photo
+3. Choose a [maxsize+1] MB jpg file</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+7. File chooser is displayed
+8. Popup "File must be JPG JPEG PNG BMP and less than [size range] MB" is displayed.
+No thumbnail is created</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Add Photo
+3. Choose an exe file</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. File chooser is displayed
+3. Popup "File must be JPG JPEG PNG BMP and less than [size range] MB" is displayed.
+No thumbnail is created</t>
+  </si>
+  <si>
+    <t>1. Input "Create a post" into text box
+2. Click Add Photo
+3. Choose a [size range] MB jpg file
+4. Choose an exe file
+5. Click Post</t>
+  </si>
+  <si>
+    <t>1. "Create a post" is displayed in text box
+2. File chooser is displayed
+3. Image thumbnail is displayed
+4. Popup "File must be JPG JPEG PNG BMP and less than [size range] MB" is displayed.
+No more thumbnail is created
+5. Post is created</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2. Click downarrow in high-right corner of a post
+3. Click Delete post in menu
+4. Click OK</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Confirm popup is displayed include:
+- Content label
+- OK button
+- Cancel button
+4. Popup is closed. Post is deleted</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2. Click downarrow in high-right corner of a post
+3. Click Delete post in menu
+4. Click Cancel</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Confirm popup is displayed include:
+- Content label
+- OK button
+- Cancel button
+4. Popup is closed</t>
+  </si>
+  <si>
+    <t>1. Click a post
+2. Click downarrow in high-right corner of a post
+3. Click out of menu</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed
+2. Display a menu include:
+- Edit post menu item
+- Delete post menu item
+3. Menu is closed</t>
+  </si>
+  <si>
+    <t>Chưa edit</t>
+  </si>
+  <si>
+    <t>Đã sửa case. Chờ sửa code</t>
+  </si>
+  <si>
+    <t>1. Click Share in a post thumbnail
+2. Input "Share this post" into share text box
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Display share panel include:
+- Share text box
+- Post content label
+- Share button
+- Cancel button
+2. "Share this post" is displayed in share text box
+3. Text box is closed</t>
+  </si>
+  <si>
+    <t>1. Click Share in a post thumbnail
+2. Input "" into share text box
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Display share panel include:
+- Share text box
+- Post content label
+- Share button
+- Cancel button
+2. "" is displayed in share text box
+3. Text box is closed</t>
+  </si>
+  <si>
+    <t>1. Click Basic Guide in footer</t>
+  </si>
+  <si>
+    <t>1. Click Basic Guide in footer
+2. Input "How to use website" to search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Click Basic Guide in footer
+2. Input "" to search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Click Basic Guide in footer
+2. Input [maxlength] characters to search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Basic Guide page is displayed
+2. [maxlength] characters is displayed in search text box
+3. Message "Nothing found" is displayed</t>
+  </si>
+  <si>
+    <t>1. Click Basic Guide in footer
+2. Input [maxlength+1] characters to search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Basic Guide page is displayed
+2. "" is displayed in search text box
+3. Message "Nothing found" is displayed below search text box</t>
+  </si>
+  <si>
+    <t>1. Basic Guide page is displayed
+2. First [maxlength] characters is displayed in search text box
+3. Message "Nothing found" is displayed below search text box</t>
+  </si>
+  <si>
+    <t>1. Click Basic Guide in footer
+2. Input "!@#$%^&amp;*()" to search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Basic Guide page is displayed
+2. "!@#$%^&amp;*()" is displayed in search text box
+3. Message "Nothing found" is displayed below search text box</t>
+  </si>
+  <si>
+    <t>1. Profile is displayed include:
+- Header
+- Cover image
+- Avatar image
+- Place button
+- Photo button
+- Friend button
+- My Friends button
+- Friend panel
+- View All button
+- Place thumbnails</t>
+  </si>
+  <si>
+    <t>Create Post</t>
+  </si>
+  <si>
+    <t>Edit Post</t>
+  </si>
+  <si>
+    <t>Delete Post</t>
+  </si>
+  <si>
+    <t>Add Post</t>
+  </si>
+  <si>
+    <t>1. Basic Guide page is displayed include:
+- Header
+- Search text box
+- Search button
+- Question table</t>
+  </si>
+  <si>
+    <t>Help Center</t>
+  </si>
+  <si>
+    <t>1. Click Create Post
+2. Click out of Create Post panel</t>
+  </si>
+  <si>
+    <t>1. Create Post panel is displayed
+2. Create Post panel is closed</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Login form is displayed
+3. "user1@gmail.com" is displayed in user name text box
+•••••••••••• is displayed in password text box
+4. User is logged in. Homepage is displayed after at most 5 second</t>
+  </si>
+  <si>
+    <t>1. Search page is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Friend menu is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Notification menu is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Message menu is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. User menu is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Hompage is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Buttons are displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Post page is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Create Post panel is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>1. Reload Homepage. Homepage is displayed after at most 5 seconds</t>
+  </si>
+  <si>
+    <t>When user click logo</t>
+  </si>
+  <si>
+    <t>When user click post</t>
+  </si>
+  <si>
+    <t>When user click search bar</t>
+  </si>
+  <si>
+    <t>When user click friend button in header</t>
+  </si>
+  <si>
+    <t>When user click notification button in header</t>
+  </si>
+  <si>
+    <t>When user click message button in header</t>
+  </si>
+  <si>
+    <t>When user click avatar button in header</t>
+  </si>
+  <si>
+    <t>When user click a post thumbnail</t>
+  </si>
+  <si>
+    <t>When user click Friend</t>
+  </si>
+  <si>
+    <t>When user click Notification</t>
+  </si>
+  <si>
+    <t>When user click Message</t>
+  </si>
+  <si>
+    <t>When user click Avatar</t>
+  </si>
+  <si>
+    <t>When user click wishlist</t>
+  </si>
+  <si>
+    <t>When user mouse over a post thumbnail</t>
+  </si>
+  <si>
+    <t>When user click Look Around</t>
+  </si>
+  <si>
+    <t>When user click Wishlist</t>
+  </si>
+  <si>
+    <t>When user move mouse over a post thumbnail</t>
+  </si>
+  <si>
+    <t>When user share a post with blank content</t>
+  </si>
+  <si>
+    <t>When user click website logo</t>
+  </si>
+  <si>
+    <t>When user click look around</t>
+  </si>
+  <si>
+    <t>When user click create post</t>
+  </si>
+  <si>
+    <t>When user click out while creating a post</t>
+  </si>
+  <si>
+    <t>When user create a post with blank content</t>
+  </si>
+  <si>
+    <t>When user mention a place with blank content</t>
+  </si>
+  <si>
+    <t>When user mention a blank place</t>
+  </si>
+  <si>
+    <t>When user mention multiple friends</t>
+  </si>
+  <si>
+    <t>When user delete mentioned place</t>
+  </si>
+  <si>
+    <t>When user delete mentioned friend</t>
+  </si>
+  <si>
+    <t>When user create a post with max length characters content</t>
+  </si>
+  <si>
+    <t>When user create a post with over max length characters content</t>
+  </si>
+  <si>
+    <t>When user cancel while creating post</t>
+  </si>
+  <si>
+    <t>When user edit post with max length characters content while viewing Timeline</t>
+  </si>
+  <si>
+    <t>When user edit post with over max length characters while viewing Timeline</t>
+  </si>
+  <si>
+    <t>When user edit post with blank content while viewing Timeline</t>
+  </si>
+  <si>
+    <t>When user cancel while editing post</t>
+  </si>
+  <si>
+    <t>When user click out while editing a post</t>
+  </si>
+  <si>
+    <t>When user cancel while deleting post</t>
+  </si>
+  <si>
+    <t>When user click out while deleting a post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with jpg image
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with jpeg image and blank content
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with png image and blank content
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with bmp image and blank content
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with jpg image and blank content
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with max size jpg image
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with an over max size jpg image
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user create a post with an exe file
+</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Input "Hanoi" into search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Input "" into search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Input [maxlength] characters into search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Input [maxlength+1] characters into search text box
+3. Click Search or press Enter</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login button</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - "user1@gmail.com" to User Name text box
+   - "user1" to Password textbox
+4. Click Login or press Enter</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - "" to User Name text box
+   - "" to Password text box</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - "user1" to User Name text box
+   - "u" to Password text box
+4. Click Login or press Enter</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - "user0@gmail.com" to User Name text box
+   - "user0" to Password text box
+4. Click Login or press Enter</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Place Suggestion in Suggestion Bar</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Friend Suggestion in Suggestion Bar</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Activity Suggestion in Suggestion Bar</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click New Feed in header</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Create Post
+6. Input "Create a post" into text box
+7. Click Add Video
+8. Input [youtube link]
+9. Click OK
+10. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Create Post
+6. Input "" into text box
+7. Click Add Video
+8. Input [youtube link]
+9. Click OK
+10. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Create Post
+6. Input "" into text box
+7. Click Add Video
+8. Input [non-youtube link]
+9. Click OK
+10. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Create Post
+6. Input "" into text box
+7. Click Add Video
+8. Input ""
+9. Click OK
+10. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Create Post
+6. Input "Create a post" into text box
+7. Click Add Video
+8. Input ""
+9. Click OK
+10. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
+2. Click Login in header
+3. Input:
+   - User name: [username]
+   - Password: [password]
+4. Click Login or press Enter
+5. Click Create Post
+6. Input "Create a post" into text box
+7. Click Add Video
+8. Input [non-youtube link]
+9. Click OK
+10. Click Create Post</t>
+  </si>
+  <si>
+    <t>1. Go to flyawayplus.com
 2. Click Login in header
 3. Input:
    - User name: [username]
@@ -450,1046 +1490,6 @@
 9. Click OK
 10. Click X in high right corner of video thumbnail
 11. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Create Post
-6. Input "" into text box
-7. Click Add Video
-8. Input [youtube link]
-9. Click OK
-10. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. [username] is displayed in user name text box
-•••••••••••• is displayed in password text box
-4. Homepage is displayed as Member
-5. Add Post page is displayed
-6. "" is displayed in text box
-7. Text box popup is displayed
-8. [youtube link] is displayed
-9. Popup is closed. Video thumbnail is displayed
-10. New post is displayed. Embedded video is playable</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Create Post
-6. Input "" into text box
-7. Click Add Video
-8. Input [non-youtube link]
-9. Click OK
-10. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. [username] is displayed in user name text box
-•••••••••••• is displayed in password text box
-4. Homepage is displayed as Member
-5. Add Post page is displayed
-6. "" is displayed in text box
-7. Text box popup is displayed
-8. [non-youtube link] is displayed
-9. Popup is closed. Input link is displayed as hyperlink
-10. New post is displayed</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - User name: [username]
-   - Password: [password]
-4. Click Login or press Enter
-5. Click Create Post
-6. Input "" into text box
-7. Click Add Video
-8. Input ""
-9. Click OK
-10. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. [username] is displayed in user name text box
-•••••••••••• is displayed in password text box
-4. Homepage is displayed as Member
-5. Add Post page is displayed
-6. "" is displayed in text box
-7. Text box popup is displayed
-8. "" is displayed
-9. Popup is closed
-10. Message "Write something" is displayed</t>
-  </si>
-  <si>
-    <t>Social - Share - Share Post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with video
-</t>
-  </si>
-  <si>
-    <t>When user share a post</t>
-  </si>
-  <si>
-    <t>When user enter website</t>
-  </si>
-  <si>
-    <t>1. Enter the website</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login button</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed includes:
-- Header
-- Slider
-- Suggest bar
-- Post thumbnails
-- Footer</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Wishlist page is displayed include:
-- Header
-- Suggest bar
-- Place thumbnails
-- Footer</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login panel is displayed include:
-- Login button
-- Register button
-- Login with Facebook button
-- Login with Google button
-- User Name text box
-- Password text box
-- Remember check box
-- Login button
-- Forgot Password hyperlink</t>
-  </si>
-  <si>
-    <t>1. Hompage is displayed
-2. Look Around page is displayed include:
-- Header
-- Map
-- Result thumbnails
-- Footer</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - "" to User Name text box
-   - "" to Password text box</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. "" is displayed in user name text box
-"" is displayed in password text box
-4. Message "Please enter user name" is displayed below user name text box
-Message "Please enter password is displayed below password text box
-Login button is disabled</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - "user1@gmail.com" to User Name text box
-   - "user1" to Password textbox
-4. Click Login or press Enter</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. "user1" is displayed in user name text box
-•••••••••••• is displayed in password text box
-4. Message "Please enter a valid email address" is displayed below User Name text box
-Message "Must be between 5 and 50 characters" is displayed below Password text box
-Login button is disabled</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - "user1" to User Name text box
-   - "u" to Password text box
-4. Click Login or press Enter</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. "user1@gmail.com" is displayed in user name text box
-•••••••••••• is displayed in password text box
-4. User is logged in</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click Login in header
-3. Input:
-   - "user0@gmail.com" to User Name text box
-   - "user0" to Password text box
-4. Click Login or press Enter</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. [username] is displayed in user name text box
-•••••••••••• is displayed in password text box
-4. User is not logged in</t>
-  </si>
-  <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>1. Click Website logo</t>
-  </si>
-  <si>
-    <t>1. Reload Homepage</t>
-  </si>
-  <si>
-    <t>1. Click Search bar</t>
-  </si>
-  <si>
-    <t>1. Search page is displayed include:
-- Search text box
-- Search button
-- People
-- Popular
-- Recent</t>
-  </si>
-  <si>
-    <t>1. Click Friend button in Header</t>
-  </si>
-  <si>
-    <t>1. Friend menu is displayed include:
-- Friend menu items
-- See All button</t>
-  </si>
-  <si>
-    <t>1. Click Notification button in Header</t>
-  </si>
-  <si>
-    <t>1. Notification menu is displayed include:
-- Notification menu items
-- See All button</t>
-  </si>
-  <si>
-    <t>1. Click Message button in Header</t>
-  </si>
-  <si>
-    <t>1. Message menu is displayed include:
-- Message menu items
-- See All button</t>
-  </si>
-  <si>
-    <t>1. Click Wishlist</t>
-  </si>
-  <si>
-    <t>1. Click Look Around</t>
-  </si>
-  <si>
-    <t>1. Mouse over a post thumbnail</t>
-  </si>
-  <si>
-    <t>1. Buttons are displayed:
-- Add to Wishlist button
-- Like button
-- Dislike button</t>
-  </si>
-  <si>
-    <t>1. Click a post thumbnail</t>
-  </si>
-  <si>
-    <t>1. Click Avatar button in Header</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed include:
-- Header
-- User Avatar image
-- User Name hyperlink
-- Post Information label
-- Post content label
-- Like button
-- Dislike button
-- Share button
-- Comment hyperlink
-- Comments
-- Comment text box</t>
-  </si>
-  <si>
-    <t>1. Click View Profile in header</t>
-  </si>
-  <si>
-    <t>1. User menu is displayed include:
-- View Profile menu item
-- Logout menu item</t>
-  </si>
-  <si>
-    <t>Login 1</t>
-  </si>
-  <si>
-    <t>Login 2</t>
-  </si>
-  <si>
-    <t>Login 3</t>
-  </si>
-  <si>
-    <t>Login 4</t>
-  </si>
-  <si>
-    <t>Login 5</t>
-  </si>
-  <si>
-    <t>Login 6</t>
-  </si>
-  <si>
-    <t>Homepage 1</t>
-  </si>
-  <si>
-    <t>Homepage 2</t>
-  </si>
-  <si>
-    <t>Homepage 3</t>
-  </si>
-  <si>
-    <t>Homepage 4</t>
-  </si>
-  <si>
-    <t>Homepage 5</t>
-  </si>
-  <si>
-    <t>Homepage 6</t>
-  </si>
-  <si>
-    <t>Homepage 7</t>
-  </si>
-  <si>
-    <t>Homepage 8</t>
-  </si>
-  <si>
-    <t>Homepage 9</t>
-  </si>
-  <si>
-    <t>Homepage 10</t>
-  </si>
-  <si>
-    <t>1. Click Create Post</t>
-  </si>
-  <si>
-    <t>Homepage 11</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. New post is displayed</t>
-  </si>
-  <si>
-    <t>1. "" is displayed in text box
-2. Popup "Write something" is displayed</t>
-  </si>
-  <si>
-    <t>1. "" is displayed in text box
-2. Place text box is displayed
-3. "A" is displayed in place text box
-Suggestion is displayed below place text box
-4. Popup "Write something" is displayed</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Post</t>
-  </si>
-  <si>
-    <t>1. Input "" into text box
-2. Click Post</t>
-  </si>
-  <si>
-    <t>1. Input "" into text box
-2. Click Place
-3. Input "A" into place text box
-4. Click Post</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Place
-3. Input "" into place text box
-4. Click Post</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. New post is displayed
-3. "" is displayed in place text box
-4. New post is created</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Place
-3. Input "A" into place text box
-4. Click a suggestion
-5. Click Post</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. New post is displayed
-3. "A" is displayed in place text box
-Suggestion is displayed
-4. Choose place is displayed in place text box. Place text box is disabled
-5. New post is displayed with place mention</t>
-  </si>
-  <si>
-    <t>1. Input "+A" into text box
-2. Click Post</t>
-  </si>
-  <si>
-    <t>1. "+A" is displayed in text box
-2. New post is displayed</t>
-  </si>
-  <si>
-    <t>1. Input "Tag a friend +A" into text box
-2. Click a friend's name
-3. Click Post</t>
-  </si>
-  <si>
-    <t>1. "Tag a friend +A" is displayed in text box
-Suggestion is displayed
-2. "+A" is replaced with friend's name hyperlink
-3. New post is created with friend mention</t>
-  </si>
-  <si>
-    <t>1. Input "Tag friends" into text box
-2. Input "+A" into  text box
-3. Click a suggestion
-4. Input "+B" friend text box
-5. Click a suggestion
-6. Click Post</t>
-  </si>
-  <si>
-    <t>1. "Tag a friend" is displayed in text box
-2. "Tag a friend +A" is displayed in friend text box
-Suggestion is displayed
-3. "+A" is replaced with chosen friend's name
-4. "[tagged friend name]+B" is displayed in friend text box
-Suggest is displayed
-5. "+B" is replaced with chosen friend's name
-6. New post is displayed with friends mention</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. New post is displayed
-3. Suggest 10 place which contains "A" is displayed
-4. Choose place is displayed in place text box. Place text box is disabled
-5. "" is displayed in place text box. Place text box is enabled
-11. New post is displayed</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Add Place
-3. Input "A" into place text box
-4. Click a suggestion
-5. Delete choose place
-11. Click Post</t>
-  </si>
-  <si>
-    <t>1. Input "Tag a friend +A" into text box
-2. Click a friend's name
-3. Delete friend's name
-4. Click Post</t>
-  </si>
-  <si>
-    <t>1. "Tag a friend +A" is displayed in text box
-Suggestion is displayed
-2. "+A" is replaced with friend's name hyperlink
-3. Friend's name hyperlink is deleted. "Tag a friend" is displayed
-3. New post is created without friend mention</t>
-  </si>
-  <si>
-    <t>1. Input [maxlength] characters into text box
-7. Click Post</t>
-  </si>
-  <si>
-    <t>1. [maxlength] characters is displayed in text box
-2. New post is displayed</t>
-  </si>
-  <si>
-    <t>1. Input [maxlength+1] characters into text box
-2. Click Post</t>
-  </si>
-  <si>
-    <t>1. First [maxlength] characters is input in text box
-2. New post is displayed</t>
-  </si>
-  <si>
-    <t>Personal Page 1</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2. Click downarrow in high-right corner of a post
-3. Click Edit post
-4. Delete old data and input "Edit this post" into post text box
-5. Click Edit</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2 . Click downarrow in high-right corner of a post
-3. Click Edit in menu
-4. Delete old data and input [maxlength] characters into post text box
-5. Click Edit</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2. Click downarrow in high-right corner of a post
-3. Click Edit in menu
-4. Delete old data and input "" into post text box</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Post text box is shown and filled
-4. "" is displayed in post text box. Edit button is disabled</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2. Click downarrow in high-right corner of a post
-3. Click Edit in menu
-4. Click Cancel</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Post text box is shown and filled instead of Post content label
-4. Post content label is displayed instead of Post text box.
-Post is not edited</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2 . Click downarrow in high-right corner of a post
-3. Click Edit in menu
-4. Delete old data and input [maxlength+1] characters into post text box
-5. Click Edit</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Post text box is shown and filled instead of Post content label
-4. "Edit this post" is displayed
-5. Post content label is displayed instead of Post text box. Post content is edited</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Post text box is shown and filled instead of Post content label
-4. [maxlength] characters is displayed
-5. Post content label is displayed instead of Post text box. Post content is edited</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Post text box is shown and filled instead of Post content label
-4. First [maxlength] characters is input
-5. Post content label is displayed instead of Post text box. Post content is edited</t>
-  </si>
-  <si>
-    <t>1. Click Cancel</t>
-  </si>
-  <si>
-    <t>1. Create Post panel is displayed include:
-- Update Status label
-- Post Content text area
-- Location button
-- Photo button
-- Video button
-- Privacy dropdown button</t>
-  </si>
-  <si>
-    <t>1. Create Post panel is closed</t>
-  </si>
-  <si>
-    <t>Chưa code. Sẽ bổ sung</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Photo
-3. Choose a [size range] MB jpg file
-4. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. File chooser is displayed
-3. Image thumbnail is displayed
-4. New post with photo is displayed</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Add Photo
-3. Choose a [size range] MB jpg file
-4. Click X in high right corner of thumbnail
-5. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. File chooser is displayed
-3. Image thumbnail is displayed
-4. Image thumbnail is deleted
-5. Post is created</t>
-  </si>
-  <si>
-    <t>1. Input "" into text box
-2. Click Add Photo
-3. Choose a [size range] MB jpeg file
-4. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. "" is displayed in text box
-2. File chooser is displayed
-3. Image thumbnail is displayed
-4. Post is created</t>
-  </si>
-  <si>
-    <t>1. Input "" into text box
-2. Click Add Photo
-3. Choose a [size range] MB png file
-4. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Input "" into text box
-2. Click Add Photo
-3. Choose a [size range] MB bmp file
-4. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Input "" into text box
-2. Click Add Photo
-3. Choose a [size range] MB jpg file
-4. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Add Photo
-3. Choose a [maxsize] MB jpg file
-4. Click Create Post</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. File chooser is displayed
-3. Image thumbnail is displayed
-4. Post is created</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Add Photo
-3. Choose a [maxsize+1] MB jpg file</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-7. File chooser is displayed
-8. Popup "File must be JPG JPEG PNG BMP and less than [size range] MB" is displayed.
-No thumbnail is created</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Add Photo
-3. Choose an exe file</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. File chooser is displayed
-3. Popup "File must be JPG JPEG PNG BMP and less than [size range] MB" is displayed.
-No thumbnail is created</t>
-  </si>
-  <si>
-    <t>1. Input "Create a post" into text box
-2. Click Add Photo
-3. Choose a [size range] MB jpg file
-4. Choose an exe file
-5. Click Post</t>
-  </si>
-  <si>
-    <t>1. "Create a post" is displayed in text box
-2. File chooser is displayed
-3. Image thumbnail is displayed
-4. Popup "File must be JPG JPEG PNG BMP and less than [size range] MB" is displayed.
-No more thumbnail is created
-5. Post is created</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2. Click downarrow in high-right corner of a post
-3. Click Delete post in menu
-4. Click OK</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Confirm popup is displayed include:
-- Content label
-- OK button
-- Cancel button
-4. Popup is closed. Post is deleted</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2. Click downarrow in high-right corner of a post
-3. Click Delete post in menu
-4. Click Cancel</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Confirm popup is displayed include:
-- Content label
-- OK button
-- Cancel button
-4. Popup is closed</t>
-  </si>
-  <si>
-    <t>1. Click a post
-2. Click downarrow in high-right corner of a post
-3. Click out of menu</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed
-2. Display a menu include:
-- Edit post menu item
-- Delete post menu item
-3. Menu is closed</t>
-  </si>
-  <si>
-    <t>Chưa edit</t>
-  </si>
-  <si>
-    <t>Đã sửa case. Chờ sửa code</t>
-  </si>
-  <si>
-    <t>1. Click Share in a post thumbnail
-2. Input "Share this post" into share text box
-3. Click OK</t>
-  </si>
-  <si>
-    <t>1. Display share panel include:
-- Share text box
-- Post content label
-- Share button
-- Cancel button
-2. "Share this post" is displayed in share text box
-3. Text box is closed</t>
-  </si>
-  <si>
-    <t>1. Click Share in a post thumbnail
-2. Input "" into share text box
-3. Click OK</t>
-  </si>
-  <si>
-    <t>1. Display share panel include:
-- Share text box
-- Post content label
-- Share button
-- Cancel button
-2. "" is displayed in share text box
-3. Text box is closed</t>
-  </si>
-  <si>
-    <t>1. Click Basic Guide in footer</t>
-  </si>
-  <si>
-    <t>1. Click Basic Guide in footer
-2. Input "How to use website" to search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Click Basic Guide in footer
-2. Input "" to search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Click Basic Guide in footer
-2. Input [maxlength] characters to search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Basic Guide page is displayed
-2. [maxlength] characters is displayed in search text box
-3. Message "Nothing found" is displayed</t>
-  </si>
-  <si>
-    <t>1. Click Basic Guide in footer
-2. Input [maxlength+1] characters to search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Basic Guide page is displayed
-2. "" is displayed in search text box
-3. Message "Nothing found" is displayed below search text box</t>
-  </si>
-  <si>
-    <t>1. Basic Guide page is displayed
-2. First [maxlength] characters is displayed in search text box
-3. Message "Nothing found" is displayed below search text box</t>
-  </si>
-  <si>
-    <t>1. Click Basic Guide in footer
-2. Input "!@#$%^&amp;*()" to search text box
-3. Click Search or press Enter</t>
-  </si>
-  <si>
-    <t>1. Basic Guide page is displayed
-2. "!@#$%^&amp;*()" is displayed in search text box
-3. Message "Nothing found" is displayed below search text box</t>
-  </si>
-  <si>
-    <t>1. Profile is displayed include:
-- Header
-- Cover image
-- Avatar image
-- Place button
-- Photo button
-- Friend button
-- My Friends button
-- Friend panel
-- View All button
-- Place thumbnails</t>
-  </si>
-  <si>
-    <t>Create Post</t>
-  </si>
-  <si>
-    <t>Edit Post</t>
-  </si>
-  <si>
-    <t>Delete Post</t>
-  </si>
-  <si>
-    <t>Add Post</t>
-  </si>
-  <si>
-    <t>1. Basic Guide page is displayed include:
-- Header
-- Search text box
-- Search button
-- Question table</t>
-  </si>
-  <si>
-    <t>Help Center</t>
-  </si>
-  <si>
-    <t>1. Click Create Post
-2. Click out of Create Post panel</t>
-  </si>
-  <si>
-    <t>1. Create Post panel is displayed
-2. Create Post panel is closed</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login form is displayed
-3. "user1@gmail.com" is displayed in user name text box
-•••••••••••• is displayed in password text box
-4. User is logged in. Homepage is displayed after at most 5 second</t>
-  </si>
-  <si>
-    <t>1. Search page is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Friend menu is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Notification menu is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Message menu is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. User menu is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Hompage is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Buttons are displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Post page is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Create Post panel is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>1. Reload Homepage. Homepage is displayed after at most 5 seconds</t>
-  </si>
-  <si>
-    <t>When user click logo</t>
-  </si>
-  <si>
-    <t>When user click post</t>
-  </si>
-  <si>
-    <t>When user click search bar</t>
-  </si>
-  <si>
-    <t>When user click friend button in header</t>
-  </si>
-  <si>
-    <t>When user click notification button in header</t>
-  </si>
-  <si>
-    <t>When user click message button in header</t>
-  </si>
-  <si>
-    <t>When user click avatar button in header</t>
-  </si>
-  <si>
-    <t>When user click a post thumbnail</t>
-  </si>
-  <si>
-    <t>When user click Friend</t>
-  </si>
-  <si>
-    <t>When user click Notification</t>
-  </si>
-  <si>
-    <t>When user click Message</t>
-  </si>
-  <si>
-    <t>When user click Avatar</t>
-  </si>
-  <si>
-    <t>When user click wishlist</t>
-  </si>
-  <si>
-    <t>When user mouse over a post thumbnail</t>
-  </si>
-  <si>
-    <t>When user click Look Around</t>
-  </si>
-  <si>
-    <t>When user click Wishlist</t>
-  </si>
-  <si>
-    <t>When user move mouse over a post thumbnail</t>
-  </si>
-  <si>
-    <t>When user share a post with blank content</t>
-  </si>
-  <si>
-    <t>When user click website logo</t>
-  </si>
-  <si>
-    <t>When user click look around</t>
-  </si>
-  <si>
-    <t>When user click create post</t>
-  </si>
-  <si>
-    <t>When user click out while creating a post</t>
-  </si>
-  <si>
-    <t>When user create a post with blank content</t>
-  </si>
-  <si>
-    <t>When user mention a place with blank content</t>
-  </si>
-  <si>
-    <t>When user mention a blank place</t>
-  </si>
-  <si>
-    <t>When user mention multiple friends</t>
-  </si>
-  <si>
-    <t>When user delete mentioned place</t>
-  </si>
-  <si>
-    <t>When user delete mentioned friend</t>
-  </si>
-  <si>
-    <t>When user create a post with max length characters content</t>
-  </si>
-  <si>
-    <t>When user create a post with over max length characters content</t>
-  </si>
-  <si>
-    <t>When user cancel while creating post</t>
-  </si>
-  <si>
-    <t>When user edit post with max length characters content while viewing Timeline</t>
-  </si>
-  <si>
-    <t>When user edit post with over max length characters while viewing Timeline</t>
-  </si>
-  <si>
-    <t>When user edit post with blank content while viewing Timeline</t>
-  </si>
-  <si>
-    <t>When user cancel while editing post</t>
-  </si>
-  <si>
-    <t>When user click out while editing a post</t>
-  </si>
-  <si>
-    <t>When user cancel while deleting post</t>
-  </si>
-  <si>
-    <t>When user click out while deleting a post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with jpg image
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with jpeg image and blank content
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with png image and blank content
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with bmp image and blank content
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with jpg image and blank content
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with max size jpg image
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with an over max size jpg image
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user create a post with an exe file
-</t>
   </si>
 </sst>
 </file>
@@ -2300,6 +2300,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2351,6 +2357,78 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2360,15 +2438,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2378,69 +2447,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2449,12 +2455,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2757,11 +2757,11 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
@@ -2769,11 +2769,11 @@
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
@@ -2781,11 +2781,11 @@
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
@@ -2802,10 +2802,10 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
@@ -2826,11 +2826,11 @@
         <f>COUNTIF(F$11:F$1049,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="85">
         <f>COUNTIF($C10:$C102, "*")</f>
         <v>11</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
@@ -2872,15 +2872,15 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11"/>
-      <c r="B9" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
+      <c r="B9" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8" ht="51">
       <c r="A10" s="1"/>
@@ -2888,10 +2888,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="1"/>
@@ -2904,10 +2904,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="1"/>
@@ -2920,10 +2920,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="1"/>
@@ -2936,10 +2936,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="24"/>
@@ -2948,28 +2948,28 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="23"/>
-      <c r="B14" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="B14" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" ht="76.5">
       <c r="A15" s="50" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
@@ -2979,16 +2979,16 @@
     <row r="16" spans="1:8" ht="76.5">
       <c r="A16" s="1"/>
       <c r="B16" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
@@ -2997,16 +2997,16 @@
     <row r="17" spans="1:8" ht="63.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -3015,16 +3015,16 @@
     <row r="18" spans="1:8" ht="51">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
@@ -3033,16 +3033,16 @@
     <row r="19" spans="1:8" ht="51">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
@@ -3051,16 +3051,16 @@
     <row r="20" spans="1:8" ht="63.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
@@ -3069,16 +3069,16 @@
     <row r="21" spans="1:8" ht="63.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
@@ -3159,11 +3159,11 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
@@ -3171,11 +3171,11 @@
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
@@ -3183,11 +3183,11 @@
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
@@ -3204,10 +3204,10 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
@@ -3228,11 +3228,11 @@
         <f>COUNTIF(F$14:F$1171,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="85">
         <f>COUNTIF($C12:$C231, "*")</f>
         <v>66</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
@@ -3274,28 +3274,28 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11"/>
-      <c r="B9" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
+      <c r="B9" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="1:8" ht="76.5">
       <c r="A10" s="50" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="31"/>
@@ -3304,19 +3304,19 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
@@ -3324,19 +3324,19 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="50" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="44"/>
@@ -3344,19 +3344,19 @@
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="33"/>
@@ -3364,19 +3364,19 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F14" s="55"/>
       <c r="G14" s="35"/>
@@ -3384,19 +3384,19 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="50" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="35"/>
@@ -3404,31 +3404,31 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="46"/>
-      <c r="B16" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
+      <c r="B16" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="62" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C17" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>89</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>110</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
@@ -3436,19 +3436,19 @@
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
@@ -3456,19 +3456,19 @@
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
       <c r="A19" s="62" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
@@ -3476,19 +3476,19 @@
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1">
       <c r="A20" s="62" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
@@ -3496,19 +3496,19 @@
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="62" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -3516,19 +3516,19 @@
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1">
       <c r="A22" s="62" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
@@ -3536,19 +3536,19 @@
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1">
       <c r="A23" s="62" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -3556,19 +3556,19 @@
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1">
       <c r="A24" s="62" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
@@ -3576,19 +3576,19 @@
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1">
       <c r="A25" s="62" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
@@ -3596,19 +3596,19 @@
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1">
       <c r="A26" s="62" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
@@ -3616,19 +3616,19 @@
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1">
       <c r="A27" s="62" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
@@ -3636,97 +3636,97 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="63"/>
-      <c r="B28" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
+      <c r="B28" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="58" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
       <c r="H29" s="64" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1">
       <c r="A30" s="57"/>
       <c r="B30" s="61" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="64" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="61" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E31" s="60"/>
       <c r="F31" s="60"/>
       <c r="G31" s="60"/>
       <c r="H31" s="64" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="31"/>
-      <c r="B32" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
+      <c r="B32" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="107"/>
     </row>
     <row r="33" spans="1:8" ht="140.25">
       <c r="A33" s="31" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -3735,48 +3735,48 @@
     <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="61" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
       <c r="H34" s="64" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35" s="31"/>
-      <c r="B35" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="111"/>
+      <c r="B35" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1">
       <c r="A36" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
@@ -3785,16 +3785,16 @@
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
       <c r="A37" s="31"/>
       <c r="B37" s="36" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -3803,13 +3803,13 @@
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
       <c r="A38" s="31"/>
       <c r="B38" s="36" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="35"/>
@@ -3819,16 +3819,16 @@
     <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39" s="31"/>
       <c r="B39" s="36" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
@@ -3837,16 +3837,16 @@
     <row r="40" spans="1:8" ht="12.75" customHeight="1">
       <c r="A40" s="31"/>
       <c r="B40" s="36" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -3855,16 +3855,16 @@
     <row r="41" spans="1:8" ht="12.75" customHeight="1">
       <c r="A41" s="31"/>
       <c r="B41" s="36" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E41" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -3873,16 +3873,16 @@
     <row r="42" spans="1:8" ht="12.75" customHeight="1">
       <c r="A42" s="31"/>
       <c r="B42" s="36" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
@@ -3891,16 +3891,16 @@
     <row r="43" spans="1:8" ht="12.75" customHeight="1">
       <c r="A43" s="31"/>
       <c r="B43" s="36" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -3909,16 +3909,16 @@
     <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44" s="31"/>
       <c r="B44" s="36" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E44" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -3927,16 +3927,16 @@
     <row r="45" spans="1:8" ht="12.75" customHeight="1">
       <c r="A45" s="31"/>
       <c r="B45" s="36" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -3945,16 +3945,16 @@
     <row r="46" spans="1:8" ht="12.75" customHeight="1">
       <c r="A46" s="31"/>
       <c r="B46" s="36" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E46" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -3963,16 +3963,16 @@
     <row r="47" spans="1:8" ht="12.75" customHeight="1">
       <c r="A47" s="31"/>
       <c r="B47" s="39" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E47" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -3981,16 +3981,16 @@
     <row r="48" spans="1:8" ht="12.75" customHeight="1">
       <c r="A48" s="31"/>
       <c r="B48" s="36" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -3999,16 +3999,16 @@
     <row r="49" spans="1:8" ht="12.75" customHeight="1">
       <c r="A49" s="31"/>
       <c r="B49" s="36" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -4017,16 +4017,16 @@
     <row r="50" spans="1:8" ht="14.25" customHeight="1">
       <c r="A50" s="31"/>
       <c r="B50" s="36" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -4034,31 +4034,31 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="31"/>
-      <c r="B51" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="114"/>
+      <c r="B51" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="110"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1">
       <c r="A52" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -4067,16 +4067,16 @@
     <row r="53" spans="1:8" ht="15" customHeight="1">
       <c r="A53" s="31"/>
       <c r="B53" s="36" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -4085,16 +4085,16 @@
     <row r="54" spans="1:8" ht="14.25" customHeight="1">
       <c r="A54" s="31"/>
       <c r="B54" s="36" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -4103,16 +4103,16 @@
     <row r="55" spans="1:8" ht="14.25" customHeight="1">
       <c r="A55" s="31"/>
       <c r="B55" s="36" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -4121,16 +4121,16 @@
     <row r="56" spans="1:8" ht="14.25" customHeight="1">
       <c r="A56" s="31"/>
       <c r="B56" s="36" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -4139,16 +4139,16 @@
     <row r="57" spans="1:8" ht="14.25" customHeight="1">
       <c r="A57" s="31"/>
       <c r="B57" s="36" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
@@ -4157,16 +4157,16 @@
     <row r="58" spans="1:8" ht="12.75" customHeight="1">
       <c r="A58" s="31"/>
       <c r="B58" s="36" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -4174,31 +4174,31 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="31"/>
-      <c r="B59" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="111"/>
+      <c r="B59" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="107"/>
     </row>
     <row r="60" spans="1:8" ht="14.25" customHeight="1">
       <c r="A60" s="31" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E60" s="67" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -4207,16 +4207,16 @@
     <row r="61" spans="1:8" ht="14.25" customHeight="1">
       <c r="A61" s="31"/>
       <c r="B61" s="36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -4225,16 +4225,16 @@
     <row r="62" spans="1:8" ht="14.25" customHeight="1">
       <c r="A62" s="31"/>
       <c r="B62" s="36" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -4243,16 +4243,16 @@
     <row r="63" spans="1:8" ht="14.25" customHeight="1">
       <c r="A63" s="31"/>
       <c r="B63" s="36" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C63" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -4260,31 +4260,31 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="31"/>
-      <c r="B64" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="111"/>
+      <c r="B64" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="107"/>
     </row>
     <row r="65" spans="1:8" ht="14.25" customHeight="1">
       <c r="A65" s="62" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F65" s="47"/>
       <c r="G65" s="47"/>
@@ -4293,366 +4293,366 @@
     <row r="66" spans="1:8" ht="15" customHeight="1">
       <c r="A66" s="31"/>
       <c r="B66" s="68" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="127" t="s">
-        <v>208</v>
+        <v>145</v>
+      </c>
+      <c r="E66" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="128" t="s">
-        <v>189</v>
+      <c r="H66" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="31"/>
       <c r="B67" s="68" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E67" s="127" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="E67" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
-      <c r="H67" s="128" t="s">
-        <v>189</v>
+      <c r="H67" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
       <c r="A68" s="31"/>
       <c r="B68" s="68" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="127" t="s">
-        <v>208</v>
+        <v>149</v>
+      </c>
+      <c r="E68" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
-      <c r="H68" s="128" t="s">
-        <v>189</v>
+      <c r="H68" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="31"/>
       <c r="B69" s="68" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="127" t="s">
-        <v>208</v>
+        <v>149</v>
+      </c>
+      <c r="E69" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
-      <c r="H69" s="128" t="s">
-        <v>189</v>
+      <c r="H69" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="31"/>
       <c r="B70" s="68" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="127" t="s">
-        <v>208</v>
+        <v>149</v>
+      </c>
+      <c r="E70" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
-      <c r="H70" s="128" t="s">
-        <v>189</v>
+      <c r="H70" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="31"/>
       <c r="B71" s="68" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" s="127" t="s">
-        <v>208</v>
+        <v>149</v>
+      </c>
+      <c r="E71" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
-      <c r="H71" s="128" t="s">
-        <v>189</v>
+      <c r="H71" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="31"/>
       <c r="B72" s="68" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" s="127" t="s">
-        <v>208</v>
+        <v>154</v>
+      </c>
+      <c r="E72" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
-      <c r="H72" s="128" t="s">
-        <v>189</v>
+      <c r="H72" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="31"/>
       <c r="B73" s="68" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="127" t="s">
-        <v>208</v>
+        <v>156</v>
+      </c>
+      <c r="E73" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
-      <c r="H73" s="128" t="s">
-        <v>189</v>
+      <c r="H73" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
       <c r="A74" s="31"/>
       <c r="B74" s="68" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="127" t="s">
-        <v>208</v>
+        <v>158</v>
+      </c>
+      <c r="E74" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="128" t="s">
-        <v>189</v>
+      <c r="H74" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="31"/>
       <c r="B75" s="68" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="127" t="s">
-        <v>208</v>
+        <v>160</v>
+      </c>
+      <c r="E75" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
-      <c r="H75" s="128" t="s">
-        <v>189</v>
+      <c r="H75" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="31"/>
-      <c r="B76" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="99"/>
+      <c r="B76" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="101"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
       <c r="A77" s="31"/>
       <c r="B77" s="68" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
       <c r="H77" s="38" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.25" customHeight="1">
       <c r="A78" s="31"/>
       <c r="B78" s="68" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="38" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.25" customHeight="1">
       <c r="A79" s="31"/>
       <c r="B79" s="68" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.25" customHeight="1">
       <c r="A80" s="31"/>
       <c r="B80" s="68" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="38" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="14.25" customHeight="1">
       <c r="A81" s="31"/>
       <c r="B81" s="68" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" s="38" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="14.25" customHeight="1">
       <c r="A82" s="31"/>
       <c r="B82" s="68" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="14.25" customHeight="1">
       <c r="A83" s="31"/>
       <c r="B83" s="68" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
       <c r="H83" s="38" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="31"/>
-      <c r="B84" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="98"/>
-      <c r="D84" s="98"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="98"/>
-      <c r="G84" s="98"/>
-      <c r="H84" s="99"/>
+      <c r="B84" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="100"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="100"/>
+      <c r="G84" s="100"/>
+      <c r="H84" s="101"/>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1">
       <c r="A85" s="31"/>
       <c r="B85" s="42" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -4661,16 +4661,16 @@
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
       <c r="A86" s="31"/>
       <c r="B86" s="42" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -4718,13 +4718,13 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="31"/>
-      <c r="B91" s="100"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="102"/>
+      <c r="B91" s="123"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="124"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="125"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="31"/>
@@ -4758,13 +4758,13 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="31"/>
-      <c r="B95" s="103"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="104"/>
-      <c r="E95" s="104"/>
-      <c r="F95" s="104"/>
-      <c r="G95" s="104"/>
-      <c r="H95" s="105"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="97"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="98"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="31"/>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="31"/>
-      <c r="B106" s="94"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="96"/>
+      <c r="B106" s="120"/>
+      <c r="C106" s="121"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
+      <c r="G106" s="121"/>
+      <c r="H106" s="122"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="31"/>
@@ -4918,13 +4918,13 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="31"/>
-      <c r="B111" s="121"/>
-      <c r="C111" s="122"/>
-      <c r="D111" s="122"/>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="122"/>
-      <c r="H111" s="123"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="118"/>
+      <c r="G111" s="118"/>
+      <c r="H111" s="119"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="31"/>
@@ -4988,13 +4988,13 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="31"/>
-      <c r="B118" s="115"/>
-      <c r="C118" s="116"/>
-      <c r="D118" s="116"/>
-      <c r="E118" s="116"/>
-      <c r="F118" s="116"/>
-      <c r="G118" s="116"/>
-      <c r="H118" s="117"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="112"/>
+      <c r="D118" s="112"/>
+      <c r="E118" s="112"/>
+      <c r="F118" s="112"/>
+      <c r="G118" s="112"/>
+      <c r="H118" s="113"/>
     </row>
     <row r="119" spans="1:8" ht="193.5" customHeight="1">
       <c r="A119" s="31"/>
@@ -5068,13 +5068,13 @@
     </row>
     <row r="126" spans="1:8" ht="13.5" customHeight="1">
       <c r="A126" s="31"/>
-      <c r="B126" s="115"/>
-      <c r="C126" s="116"/>
-      <c r="D126" s="116"/>
-      <c r="E126" s="116"/>
-      <c r="F126" s="116"/>
-      <c r="G126" s="116"/>
-      <c r="H126" s="117"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="112"/>
+      <c r="H126" s="113"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="31"/>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="134" spans="1:8" ht="13.5" customHeight="1">
       <c r="A134" s="31"/>
-      <c r="B134" s="115"/>
-      <c r="C134" s="116"/>
-      <c r="D134" s="116"/>
-      <c r="E134" s="116"/>
-      <c r="F134" s="116"/>
-      <c r="G134" s="116"/>
-      <c r="H134" s="117"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="112"/>
+      <c r="E134" s="112"/>
+      <c r="F134" s="112"/>
+      <c r="G134" s="112"/>
+      <c r="H134" s="113"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="31"/>
@@ -5198,13 +5198,13 @@
     </row>
     <row r="139" spans="1:8" ht="12.75" customHeight="1">
       <c r="A139" s="31"/>
-      <c r="B139" s="115"/>
-      <c r="C139" s="116"/>
-      <c r="D139" s="116"/>
-      <c r="E139" s="116"/>
-      <c r="F139" s="116"/>
-      <c r="G139" s="116"/>
-      <c r="H139" s="117"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="112"/>
+      <c r="D139" s="112"/>
+      <c r="E139" s="112"/>
+      <c r="F139" s="112"/>
+      <c r="G139" s="112"/>
+      <c r="H139" s="113"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="31"/>
@@ -5278,13 +5278,13 @@
     </row>
     <row r="147" spans="1:8" ht="12.75" customHeight="1">
       <c r="A147" s="31"/>
-      <c r="B147" s="103"/>
-      <c r="C147" s="104"/>
-      <c r="D147" s="104"/>
-      <c r="E147" s="104"/>
-      <c r="F147" s="104"/>
-      <c r="G147" s="104"/>
-      <c r="H147" s="105"/>
+      <c r="B147" s="96"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="98"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="31"/>
@@ -5476,6 +5476,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B147:H147"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B9:H9"/>
@@ -5492,14 +5500,6 @@
     <mergeCell ref="B134:H134"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3 F7:F8 F10:F13 F17:F27 F36 F65">
@@ -5536,11 +5536,11 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
@@ -5548,11 +5548,11 @@
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
@@ -5560,11 +5560,11 @@
       <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
@@ -5581,10 +5581,10 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
@@ -5605,11 +5605,11 @@
         <f>COUNTIF(F$12:F$1108,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="85">
         <f>COUNTIF($C12:$C168, "*")</f>
         <v>11</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
@@ -5651,28 +5651,28 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11"/>
-      <c r="B9" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
+      <c r="B9" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="1:8" ht="25.5">
       <c r="A10" s="50" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="31"/>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="44"/>
@@ -5701,31 +5701,31 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="46"/>
-      <c r="B12" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
+      <c r="B12" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
     </row>
     <row r="13" spans="1:8" ht="25.5">
       <c r="A13" s="62" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C13" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>110</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
@@ -5733,19 +5733,19 @@
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="62" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
@@ -5753,19 +5753,19 @@
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="62" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
@@ -5773,19 +5773,19 @@
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="62" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
@@ -5793,19 +5793,19 @@
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
       <c r="A17" s="62" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
@@ -5813,19 +5813,19 @@
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
@@ -5833,19 +5833,19 @@
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
       <c r="A19" s="62" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
@@ -5853,19 +5853,19 @@
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1">
       <c r="A20" s="62" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
@@ -5873,19 +5873,19 @@
     </row>
     <row r="21" spans="1:8" ht="25.5">
       <c r="A21" s="62" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
@@ -5893,19 +5893,19 @@
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1">
       <c r="A22" s="62" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
@@ -5913,19 +5913,19 @@
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1">
       <c r="A23" s="62" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -5973,13 +5973,13 @@
     </row>
     <row r="28" spans="1:8" s="72" customFormat="1">
       <c r="A28" s="71"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
     </row>
     <row r="29" spans="1:8" s="72" customFormat="1">
       <c r="A29" s="71"/>
@@ -6013,13 +6013,13 @@
     </row>
     <row r="32" spans="1:8" s="72" customFormat="1">
       <c r="A32" s="71"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
     </row>
     <row r="33" spans="1:8" s="72" customFormat="1">
       <c r="A33" s="71"/>
@@ -6099,13 +6099,13 @@
     </row>
     <row r="43" spans="1:8" s="72" customFormat="1">
       <c r="A43" s="71"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
     </row>
     <row r="44" spans="1:8" s="72" customFormat="1">
       <c r="A44" s="71"/>
@@ -6137,13 +6137,13 @@
     </row>
     <row r="48" spans="1:8" s="72" customFormat="1">
       <c r="A48" s="71"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
     </row>
     <row r="49" spans="1:8" s="72" customFormat="1">
       <c r="A49" s="71"/>
@@ -6183,13 +6183,13 @@
     </row>
     <row r="55" spans="1:8" s="72" customFormat="1">
       <c r="A55" s="71"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
     </row>
     <row r="56" spans="1:8" s="72" customFormat="1" ht="193.5" customHeight="1">
       <c r="A56" s="71"/>
@@ -6235,13 +6235,13 @@
     </row>
     <row r="63" spans="1:8" s="72" customFormat="1" ht="13.5" customHeight="1">
       <c r="A63" s="71"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="128"/>
     </row>
     <row r="64" spans="1:8" s="72" customFormat="1">
       <c r="A64" s="71"/>
@@ -6315,13 +6315,13 @@
     </row>
     <row r="71" spans="1:8" s="72" customFormat="1" ht="13.5" customHeight="1">
       <c r="A71" s="71"/>
-      <c r="B71" s="126"/>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
     </row>
     <row r="72" spans="1:8" s="72" customFormat="1">
       <c r="A72" s="71"/>
@@ -6365,13 +6365,13 @@
     </row>
     <row r="76" spans="1:8" s="72" customFormat="1" ht="12.75" customHeight="1">
       <c r="A76" s="71"/>
-      <c r="B76" s="126"/>
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="128"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="128"/>
     </row>
     <row r="77" spans="1:8" s="72" customFormat="1">
       <c r="A77" s="71"/>
@@ -6445,13 +6445,13 @@
     </row>
     <row r="84" spans="1:8" s="72" customFormat="1" ht="12.75" customHeight="1">
       <c r="A84" s="71"/>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="124"/>
+      <c r="B84" s="126"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="126"/>
+      <c r="E84" s="126"/>
+      <c r="F84" s="126"/>
+      <c r="G84" s="126"/>
+      <c r="H84" s="126"/>
     </row>
     <row r="85" spans="1:8" s="72" customFormat="1">
       <c r="A85" s="71"/>
@@ -6639,6 +6639,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B32:H32"/>
@@ -6649,12 +6655,6 @@
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="B71:H71"/>
     <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3 F7:F8 F13:F23 F10:F11">
